--- a/Compiled2/LS2-02A.xlsx
+++ b/Compiled2/LS2-02A.xlsx
@@ -355,975 +355,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Date-Time (EDT)</t>
+          <t>Temperature</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ch: 1 - Temperature   (°C)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2">
         <v>45399.65625</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>25.951962890625</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2">
         <v>45399.71875</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>25.82326171875</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2">
         <v>45399.72916666667</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>25.7374609375</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="2">
         <v>45399.73958333333</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>25.48005859375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="2">
         <v>45399.75</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>24.96525390625</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="2">
         <v>45399.76041666667</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>24.45044921875</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="2">
         <v>45399.77083333333</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>23.635341796875</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="2">
         <v>45399.78125</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>23.120537109375</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="2">
         <v>45399.79166666667</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>22.820234375</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="2">
         <v>45399.80208333333</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>22.39123046875</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="2">
         <v>45399.8125</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>21.404521484375</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="2">
         <v>45399.82291666667</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>20.50361328125</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="2">
         <v>45399.83333333333</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>19.431103515625</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="2">
         <v>45399.84375</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>18.27279296875</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="2">
         <v>45399.85416666667</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>17.629287109375</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="2">
         <v>45399.86458333333</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>16.942880859375</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="2">
         <v>45399.875</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>16.428076171875</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="2">
         <v>45399.88541666667</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>15.999072265625</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="2">
         <v>45399.89583333333</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>16.299375</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="2">
         <v>45399.90625</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>15.956171875</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="2">
         <v>45399.91666666667</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>15.913271484375</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" s="2">
         <v>45399.92708333333</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>16.299375</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" s="2">
         <v>45399.9375</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>16.342275390625</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="2">
         <v>45399.94791666667</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>16.256474609375</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="2">
         <v>45399.95833333333</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>12.43833984375</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" s="2">
         <v>45399.96875</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>12.223837890625</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" s="2">
         <v>45399.97916666667</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>12.26673828125</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" s="2">
         <v>45399.98958333333</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>12.223837890625</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" s="2">
         <v>45400</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>12.138037109375</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" s="2">
         <v>45400.01041666667</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>12.09513671875</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="2">
         <v>45400.02083333333</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>12.0093359375</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" s="2">
         <v>45400.03125</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>12.09513671875</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="2">
         <v>45400.04166666667</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>12.09513671875</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="2">
         <v>45400.05208333333</v>
       </c>
-      <c r="C35">
+      <c r="B35">
         <v>12.26673828125</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="2">
         <v>45400.0625</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>12.3525390625</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="2">
         <v>45400.07291666667</v>
       </c>
-      <c r="C37">
+      <c r="B37">
         <v>12.395439453125</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="2">
         <v>45400.08333333333</v>
       </c>
-      <c r="C38">
+      <c r="B38">
         <v>12.395439453125</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="2">
         <v>45400.09375</v>
       </c>
-      <c r="C39">
+      <c r="B39">
         <v>12.481240234375</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="A40" s="2">
         <v>45400.10416666667</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>12.524140625</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A41" s="2">
         <v>45400.11458333333</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>12.481240234375</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="A42" s="2">
         <v>45400.125</v>
       </c>
-      <c r="C42">
+      <c r="B42">
         <v>12.309638671875</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="A43" s="2">
         <v>45400.13541666667</v>
       </c>
-      <c r="C43">
+      <c r="B43">
         <v>12.09513671875</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="A44" s="2">
         <v>45400.14583333333</v>
       </c>
-      <c r="C44">
+      <c r="B44">
         <v>11.880634765625</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="A45" s="2">
         <v>45400.15625</v>
       </c>
-      <c r="C45">
+      <c r="B45">
         <v>11.837734375</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="A46" s="2">
         <v>45400.16666666667</v>
       </c>
-      <c r="C46">
+      <c r="B46">
         <v>11.92353515625</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="A47" s="2">
         <v>45400.17708333333</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>11.75193359375</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="A48" s="2">
         <v>45400.1875</v>
       </c>
-      <c r="C48">
+      <c r="B48">
         <v>11.6661328125</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="A49" s="2">
         <v>45400.19791666667</v>
       </c>
-      <c r="C49">
+      <c r="B49">
         <v>11.709033203125</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" s="2">
         <v>45400.20833333333</v>
       </c>
-      <c r="C50">
+      <c r="B50">
         <v>11.837734375</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="A51" s="2">
         <v>45400.21875</v>
       </c>
-      <c r="C51">
+      <c r="B51">
         <v>11.92353515625</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="A52" s="2">
         <v>45400.22916666667</v>
       </c>
-      <c r="C52">
+      <c r="B52">
         <v>12.052236328125</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" s="2">
         <v>45400.23958333333</v>
       </c>
-      <c r="C53">
+      <c r="B53">
         <v>12.223837890625</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>59</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="A54" s="2">
         <v>45400.25</v>
       </c>
-      <c r="C54">
+      <c r="B54">
         <v>12.309638671875</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>60</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="A55" s="2">
         <v>45400.26041666667</v>
       </c>
-      <c r="C55">
+      <c r="B55">
         <v>12.395439453125</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>61</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="A56" s="2">
         <v>45400.27083333333</v>
       </c>
-      <c r="C56">
+      <c r="B56">
         <v>12.395439453125</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>62</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="A57" s="2">
         <v>45400.28125</v>
       </c>
-      <c r="C57">
+      <c r="B57">
         <v>12.309638671875</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="A58" s="2">
         <v>45400.29166666667</v>
       </c>
-      <c r="C58">
+      <c r="B58">
         <v>12.3525390625</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>64</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="A59" s="2">
         <v>45400.30208333333</v>
       </c>
-      <c r="C59">
+      <c r="B59">
         <v>12.481240234375</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>65</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="A60" s="2">
         <v>45400.3125</v>
       </c>
-      <c r="C60">
+      <c r="B60">
         <v>12.481240234375</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>66</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="A61" s="2">
         <v>45400.32291666667</v>
       </c>
-      <c r="C61">
+      <c r="B61">
         <v>12.481240234375</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>67</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="A62" s="2">
         <v>45400.33333333333</v>
       </c>
-      <c r="C62">
+      <c r="B62">
         <v>12.60994140625</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>68</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="A63" s="2">
         <v>45400.34375</v>
       </c>
-      <c r="C63">
+      <c r="B63">
         <v>12.60994140625</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>69</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="A64" s="2">
         <v>45400.35416666667</v>
       </c>
-      <c r="C64">
+      <c r="B64">
         <v>12.78154296875</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>70</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="A65" s="2">
         <v>45400.36458333333</v>
       </c>
-      <c r="C65">
+      <c r="B65">
         <v>12.996044921875</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>71</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="A66" s="2">
         <v>45400.375</v>
       </c>
-      <c r="C66">
+      <c r="B66">
         <v>13.210546875</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>72</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="A67" s="2">
         <v>45400.38541666667</v>
       </c>
-      <c r="C67">
+      <c r="B67">
         <v>13.3821484375</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>73</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="A68" s="2">
         <v>45400.39583333333</v>
       </c>
-      <c r="C68">
+      <c r="B68">
         <v>13.896953125</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>74</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="A69" s="2">
         <v>45400.40625</v>
       </c>
-      <c r="C69">
+      <c r="B69">
         <v>14.626259765625</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>75</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="A70" s="2">
         <v>45400.41666666667</v>
       </c>
-      <c r="C70">
+      <c r="B70">
         <v>14.883662109375</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <v>76</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="A71" s="2">
         <v>45400.42708333333</v>
       </c>
-      <c r="C71">
+      <c r="B71">
         <v>14.712060546875</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <v>77</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="A72" s="2">
         <v>45400.4375</v>
       </c>
-      <c r="C72">
+      <c r="B72">
         <v>15.0981640625</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>78</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="A73" s="2">
         <v>45400.44791666667</v>
       </c>
-      <c r="C73">
+      <c r="B73">
         <v>14.797861328125</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
-        <v>79</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="A74" s="2">
         <v>45400.45833333333</v>
       </c>
-      <c r="C74">
+      <c r="B74">
         <v>15.055263671875</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <v>80</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="A75" s="2">
         <v>45400.46875</v>
       </c>
-      <c r="C75">
+      <c r="B75">
         <v>15.87037109375</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
-        <v>81</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="A76" s="2">
         <v>45400.47916666667</v>
       </c>
-      <c r="C76">
+      <c r="B76">
         <v>16.771279296875</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
-        <v>82</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="A77" s="2">
         <v>45400.48958333333</v>
       </c>
-      <c r="C77">
+      <c r="B77">
         <v>16.55677734375</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>83</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="A78" s="2">
         <v>45400.5</v>
       </c>
-      <c r="C78">
+      <c r="B78">
         <v>17.41478515625</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
-        <v>84</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="A79" s="2">
         <v>45400.51041666667</v>
       </c>
-      <c r="C79">
+      <c r="B79">
         <v>16.98578125</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
-        <v>85</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="A80" s="2">
         <v>45400.52083333333</v>
       </c>
-      <c r="C80">
+      <c r="B80">
         <v>17.24318359375</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
-        <v>86</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="A81" s="2">
         <v>45400.53125</v>
       </c>
-      <c r="C81">
+      <c r="B81">
         <v>17.5005859375</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
-        <v>87</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="A82" s="2">
         <v>45400.54166666667</v>
       </c>
-      <c r="C82">
+      <c r="B82">
         <v>17.543486328125</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
-        <v>88</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="A83" s="2">
         <v>45400.55208333333</v>
       </c>
-      <c r="C83">
+      <c r="B83">
         <v>18.315693359375</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
-        <v>89</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="A84" s="2">
         <v>45400.5625</v>
       </c>
-      <c r="C84">
+      <c r="B84">
         <v>18.78759765625</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
-        <v>90</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="A85" s="2">
         <v>45400.57291666667</v>
       </c>
-      <c r="C85">
+      <c r="B85">
         <v>19.30240234375</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
-        <v>91</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="A86" s="2">
         <v>45400.58333333333</v>
       </c>
-      <c r="C86">
+      <c r="B86">
         <v>19.774306640625</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
-        <v>92</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="A87" s="2">
         <v>45400.59375</v>
       </c>
-      <c r="C87">
+      <c r="B87">
         <v>20.074609375</v>
       </c>
     </row>
